--- a/budget_2023.xlsx
+++ b/budget_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\01_Dave\Sync\Church - Dave+Oksana_Shared_Folder\budget_2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\01_Dave\Programs\GitHub_home\budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BA8312-4EDD-491C-AED9-F5C7B6696FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D230763-F200-465A-A413-6E44E1C6B58E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17925" yWindow="0" windowWidth="10980" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2003 budget" sheetId="7" r:id="rId1"/>
@@ -21,13 +21,13 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2003 budget'!$A$1:$S$204</definedName>
-    <definedName name="_xlcn.WorksheetConnection_budget_2024.xlsxTable21" hidden="1">'[1]budget 11-01-23'!$A$1:$M$198</definedName>
-    <definedName name="_xlcn.WorksheetConnection_budget_2024.xlsxTable31" hidden="1">Table1</definedName>
+    <definedName name="_xlcn.WorksheetConnection_budget_2024.xlsxTable2" hidden="1">'[1]budget 11-01-23'!$A$1:$M$198</definedName>
+    <definedName name="_xlcn.WorksheetConnection_budget_2024.xlsxTable3" hidden="1">Table1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2003 budget'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="4" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FCE2AD5D-F65C-4FA6-A056-5C36A1767C68}">
@@ -100,7 +100,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Table2" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_budget_2024.xlsxTable21"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_budget_2024.xlsxTable2"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -109,7 +109,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Table3">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_budget_2024.xlsxTable31"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_budget_2024.xlsxTable3"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -1146,7 +1146,19 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{6F80153F-CDA1-4E91-9FDD-43E3E0555995}"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1173,9 +1185,6 @@
           <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1204,18 +1213,18 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Oksana Podoba" refreshedDate="45020.549143055556" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="203" xr:uid="{2299149E-79F5-4E5C-9E60-47CC0B06303D}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David Hjelmar" refreshedDate="45051.557591435187" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="203" xr:uid="{2299149E-79F5-4E5C-9E60-47CC0B06303D}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:P204" sheet="2003 budget"/>
   </cacheSource>
-  <cacheFields count="15">
-    <cacheField name="Income or Expence" numFmtId="0">
+  <cacheFields count="16">
+    <cacheField name="InOrOut" numFmtId="0">
       <sharedItems count="2">
         <s v="Income"/>
         <s v="Expense"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Budget category" numFmtId="0">
+    <cacheField name="Category" numFmtId="0">
       <sharedItems count="28">
         <s v="Contributions"/>
         <s v="Covenant"/>
@@ -1247,13 +1256,13 @@
         <s v="Youth Ed Staff"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Committee + Income Detail" numFmtId="0">
+    <cacheField name="Committee" numFmtId="0">
       <sharedItems/>
     </cacheField>
-    <cacheField name="Source of Funds" numFmtId="0">
+    <cacheField name="SourceOfFunds" numFmtId="0">
       <sharedItems/>
     </cacheField>
-    <cacheField name="Line Items" numFmtId="0">
+    <cacheField name="Account" numFmtId="0">
       <sharedItems/>
     </cacheField>
     <cacheField name="2023 Asking Budget" numFmtId="0">
@@ -1267,6 +1276,9 @@
     </cacheField>
     <cacheField name="2023 Budget 4/4/23" numFmtId="164">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-93167.21" maxValue="335500"/>
+    </cacheField>
+    <cacheField name="Budget" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-93167.21" maxValue="335500"/>
     </cacheField>
     <cacheField name="Comments (format: date, name, optional why; date, name, optional why)" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -1307,6 +1319,7 @@
     <n v="14000"/>
     <n v="14000"/>
     <n v="14000"/>
+    <n v="14000"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -1324,6 +1337,7 @@
     <n v="335500"/>
     <n v="335500"/>
     <n v="335500"/>
+    <n v="335500"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -1341,6 +1355,7 @@
     <n v="10000"/>
     <n v="10000"/>
     <n v="10000"/>
+    <n v="10000"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -1355,6 +1370,7 @@
     <s v="Undesignated"/>
     <s v="4013 Vespers Offering"/>
     <m/>
+    <n v="7000"/>
     <n v="7000"/>
     <n v="7000"/>
     <n v="7000"/>
@@ -1375,6 +1391,7 @@
     <n v="10000"/>
     <n v="10000"/>
     <n v="10000"/>
+    <n v="10000"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -1392,6 +1409,7 @@
     <n v="32500"/>
     <n v="32500"/>
     <n v="32500"/>
+    <n v="32500"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -1409,6 +1427,7 @@
     <n v="200"/>
     <n v="200"/>
     <n v="200"/>
+    <n v="200"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -1426,6 +1445,7 @@
     <n v="200"/>
     <n v="200"/>
     <n v="200"/>
+    <n v="200"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -1443,6 +1463,7 @@
     <n v="8000"/>
     <n v="8000"/>
     <n v="8000"/>
+    <n v="8000"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -1460,6 +1481,7 @@
     <n v="20000"/>
     <m/>
     <m/>
+    <n v="0"/>
     <s v="3/2023 Dave: Per Consistory and Worship, changed so $5k from Terc and $13k from Undesignated"/>
     <m/>
     <m/>
@@ -1477,6 +1499,7 @@
     <n v="66000"/>
     <n v="66000"/>
     <n v="66000"/>
+    <n v="66000"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -1494,6 +1517,7 @@
     <n v="47520"/>
     <n v="62520"/>
     <n v="62520"/>
+    <n v="62520"/>
     <s v="3/2023 Dave: Changed to balance budget"/>
     <s v="Not a position"/>
     <m/>
@@ -1511,6 +1535,7 @@
     <n v="100000"/>
     <n v="100000"/>
     <n v="100000"/>
+    <n v="100000"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -1528,6 +1553,7 @@
     <n v="0"/>
     <n v="175700"/>
     <n v="175700"/>
+    <n v="175700"/>
     <s v="3/2023 Dave: Per Consistory, added from $702k to balance budget"/>
     <s v="Not a position"/>
     <m/>
@@ -1545,6 +1571,7 @@
     <n v="246000"/>
     <n v="188500"/>
     <n v="188500"/>
+    <n v="188500"/>
     <s v="3/2023 Dave: Set to 5% draw"/>
     <s v="Not a position"/>
     <m/>
@@ -1562,6 +1589,7 @@
     <n v="140000"/>
     <n v="140000"/>
     <n v="140000"/>
+    <n v="140000"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -1576,6 +1604,7 @@
     <s v="Undesignated"/>
     <s v="4044 Birch Income"/>
     <m/>
+    <n v="16922"/>
     <n v="16922"/>
     <n v="16922"/>
     <n v="16922"/>
@@ -1591,8 +1620,9 @@
     <x v="2"/>
     <s v="UP Mission"/>
     <s v="UP Mission Fund"/>
-    <s v="4045 UP Mission Fund Income"/>
-    <m/>
+    <s v="4049 UP Mission Fund Income"/>
+    <m/>
+    <n v="34600"/>
     <n v="34600"/>
     <n v="34600"/>
     <n v="34600"/>
@@ -1613,6 +1643,7 @@
     <n v="17350"/>
     <n v="22350"/>
     <n v="22350"/>
+    <n v="22350"/>
     <s v="3/2023 Dave: Changed to balance budget"/>
     <s v="Not a position"/>
     <m/>
@@ -1630,6 +1661,7 @@
     <n v="10000"/>
     <n v="10000"/>
     <n v="10000"/>
+    <n v="10000"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -1647,6 +1679,7 @@
     <n v="3000"/>
     <n v="3000"/>
     <n v="3000"/>
+    <n v="3000"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -1664,6 +1697,7 @@
     <n v="13800"/>
     <n v="13800"/>
     <n v="13800"/>
+    <n v="13800"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -1679,6 +1713,7 @@
     <s v="4055 Flowers income"/>
     <m/>
     <m/>
+    <n v="1100"/>
     <n v="1100"/>
     <n v="1100"/>
     <s v="3/2023 Oksana: This was not meant to be Cook Trust"/>
@@ -1698,6 +1733,7 @@
     <n v="1100"/>
     <n v="910"/>
     <n v="910"/>
+    <n v="910"/>
     <s v="3/2023 Oksana: This should be the Cook Trust income"/>
     <s v="Not a position"/>
     <m/>
@@ -1715,6 +1751,7 @@
     <n v="3500"/>
     <m/>
     <m/>
+    <n v="0"/>
     <s v="3/2023 Oksana: Youth Ed no longer holding a fundraiser for this and lumped into Endowment expense"/>
     <m/>
     <m/>
@@ -1732,6 +1769,7 @@
     <n v="-3500"/>
     <n v="-3500"/>
     <n v="-3500"/>
+    <n v="-3500"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -1749,6 +1787,7 @@
     <n v="-27000"/>
     <n v="-27000"/>
     <n v="-27000"/>
+    <n v="-27000"/>
     <m/>
     <s v="A/V Contract Services"/>
     <s v="Base Salary"/>
@@ -1766,6 +1805,7 @@
     <n v="-500"/>
     <n v="-500"/>
     <n v="-500"/>
+    <n v="-500"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -1783,6 +1823,7 @@
     <n v="-9000"/>
     <n v="-9000"/>
     <n v="-9000"/>
+    <n v="-9000"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -1800,6 +1841,7 @@
     <n v="-4000"/>
     <n v="-4000"/>
     <n v="-4000"/>
+    <n v="-4000"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -1817,6 +1859,7 @@
     <n v="-3000"/>
     <n v="-3000"/>
     <n v="-3000"/>
+    <n v="-3000"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -1834,6 +1877,7 @@
     <n v="-1500"/>
     <n v="-1500"/>
     <n v="-1500"/>
+    <n v="-1500"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -1851,6 +1895,7 @@
     <n v="-1000"/>
     <n v="-1000"/>
     <n v="-1000"/>
+    <n v="-1000"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -1868,6 +1913,7 @@
     <n v="-2800"/>
     <n v="-2800"/>
     <n v="-2800"/>
+    <n v="-2800"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -1885,6 +1931,7 @@
     <n v="-1600"/>
     <n v="-1600"/>
     <n v="-1600"/>
+    <n v="-1600"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -1902,6 +1949,7 @@
     <n v="-500"/>
     <n v="-500"/>
     <n v="-500"/>
+    <n v="-500"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -1919,6 +1967,7 @@
     <n v="-4200"/>
     <n v="-4200"/>
     <n v="-4200"/>
+    <n v="-4200"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -1936,6 +1985,7 @@
     <n v="-3000"/>
     <n v="-3000"/>
     <n v="-3000"/>
+    <n v="-3000"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -1953,6 +2003,7 @@
     <n v="-5020"/>
     <n v="-5020"/>
     <n v="-5020"/>
+    <n v="-5020"/>
     <m/>
     <s v="Office"/>
     <m/>
@@ -1970,6 +2021,7 @@
     <n v="-65600"/>
     <n v="-65600"/>
     <n v="-65600"/>
+    <n v="-65600"/>
     <m/>
     <s v="Office"/>
     <s v="Base Salary"/>
@@ -1987,6 +2039,7 @@
     <n v="-2080"/>
     <n v="-2080"/>
     <n v="-2080"/>
+    <n v="-2080"/>
     <m/>
     <s v="Office"/>
     <m/>
@@ -2001,6 +2054,7 @@
     <s v="Undesignated"/>
     <s v="5005 Medical Administration"/>
     <m/>
+    <n v="-11000"/>
     <n v="-11000"/>
     <n v="-11000"/>
     <n v="-11000"/>
@@ -2021,6 +2075,7 @@
     <n v="-1000"/>
     <n v="-1000"/>
     <n v="-1000"/>
+    <n v="-1000"/>
     <m/>
     <s v="Office"/>
     <m/>
@@ -2038,6 +2093,7 @@
     <n v="-225"/>
     <n v="-225"/>
     <n v="-225"/>
+    <n v="-225"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -2055,6 +2111,7 @@
     <n v="-180"/>
     <n v="-180"/>
     <n v="-180"/>
+    <n v="-180"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -2072,6 +2129,7 @@
     <n v="-450"/>
     <n v="-450"/>
     <n v="-450"/>
+    <n v="-450"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -2089,6 +2147,7 @@
     <n v="-180"/>
     <n v="-180"/>
     <n v="-180"/>
+    <n v="-180"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -2106,6 +2165,7 @@
     <n v="-900"/>
     <n v="-900"/>
     <n v="-900"/>
+    <n v="-900"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -2123,6 +2183,7 @@
     <n v="-180"/>
     <n v="-180"/>
     <n v="-180"/>
+    <n v="-180"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -2137,6 +2198,7 @@
     <s v="Undesignated"/>
     <s v="8110 Archives &amp; Restoration"/>
     <m/>
+    <n v="-2000"/>
     <n v="-2000"/>
     <n v="-2000"/>
     <n v="-2000"/>
@@ -2157,6 +2219,7 @@
     <n v="-1500"/>
     <n v="-1500"/>
     <n v="-1500"/>
+    <n v="-1500"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -2174,6 +2237,7 @@
     <n v="-250"/>
     <n v="-250"/>
     <n v="-250"/>
+    <n v="-250"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -2191,6 +2255,7 @@
     <n v="-500"/>
     <n v="-500"/>
     <n v="-500"/>
+    <n v="-500"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -2208,6 +2273,7 @@
     <n v="-200"/>
     <n v="-200"/>
     <n v="-200"/>
+    <n v="-200"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -2225,6 +2291,7 @@
     <n v="-300"/>
     <n v="-300"/>
     <n v="-300"/>
+    <n v="-300"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -2242,6 +2309,7 @@
     <n v="-200"/>
     <n v="-200"/>
     <n v="-200"/>
+    <n v="-200"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -2256,6 +2324,7 @@
     <s v="Undesignated"/>
     <s v="6522 Flowers Support &amp; Care"/>
     <m/>
+    <n v="-300"/>
     <n v="-300"/>
     <n v="-300"/>
     <n v="-300"/>
@@ -2276,6 +2345,7 @@
     <n v="-1650"/>
     <n v="-1650"/>
     <n v="-1560"/>
+    <n v="-1560"/>
     <m/>
     <s v="Assoc. Pastor"/>
     <m/>
@@ -2293,6 +2363,7 @@
     <n v="-51752.81"/>
     <n v="-51752.81"/>
     <n v="-51752.81"/>
+    <n v="-51752.81"/>
     <m/>
     <s v="Assoc. Pastor"/>
     <s v="Base Salary"/>
@@ -2310,6 +2381,7 @@
     <n v="-24362.639999999999"/>
     <n v="-24362.639999999999"/>
     <n v="-22326"/>
+    <n v="-22326"/>
     <m/>
     <s v="Assoc. Pastor"/>
     <m/>
@@ -2327,6 +2399,7 @@
     <n v="-10146.24"/>
     <n v="-10146.24"/>
     <n v="-10146.24"/>
+    <n v="-10146.24"/>
     <m/>
     <s v="Assoc. Pastor"/>
     <m/>
@@ -2344,6 +2417,7 @@
     <n v="-6541.72"/>
     <n v="-6541.72"/>
     <n v="-5236.5200000000004"/>
+    <n v="-5236.5200000000004"/>
     <m/>
     <s v="Assoc. Pastor"/>
     <m/>
@@ -2361,6 +2435,7 @@
     <n v="-3800"/>
     <n v="-3800"/>
     <n v="-3800"/>
+    <n v="-3800"/>
     <m/>
     <s v="Assoc. Pastor"/>
     <m/>
@@ -2378,6 +2453,7 @@
     <n v="-33759.89"/>
     <n v="-33759.89"/>
     <n v="-33759.89"/>
+    <n v="-33759.89"/>
     <m/>
     <s v="Assoc. Pastor"/>
     <s v="Base Salary"/>
@@ -2395,6 +2471,7 @@
     <n v="-3500"/>
     <n v="-3500"/>
     <n v="-3500"/>
+    <n v="-3500"/>
     <m/>
     <s v="Assoc. Pastor"/>
     <m/>
@@ -2412,6 +2489,7 @@
     <n v="-500"/>
     <n v="-500"/>
     <n v="-500"/>
+    <n v="-500"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -2429,6 +2507,7 @@
     <n v="-1000"/>
     <n v="-1000"/>
     <n v="-1000"/>
+    <n v="-1000"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -2446,6 +2525,7 @@
     <n v="-1000"/>
     <n v="-1000"/>
     <n v="-1000"/>
+    <n v="-1000"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -2463,6 +2543,7 @@
     <n v="-500"/>
     <n v="-500"/>
     <n v="-500"/>
+    <n v="-500"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -2480,6 +2561,7 @@
     <n v="-2000"/>
     <n v="-2000"/>
     <n v="-2000"/>
+    <n v="-2000"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -2497,6 +2579,7 @@
     <n v="-500"/>
     <n v="-500"/>
     <n v="-500"/>
+    <n v="-500"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -2514,6 +2597,7 @@
     <n v="-41600"/>
     <n v="-41600"/>
     <n v="-41600"/>
+    <n v="-41600"/>
     <m/>
     <s v="Communication Specialist"/>
     <s v="Base Salary"/>
@@ -2531,6 +2615,7 @@
     <n v="-3182.4"/>
     <n v="-3182.4"/>
     <n v="-3182.4"/>
+    <n v="-3182.4"/>
     <m/>
     <s v="Communication Specialist"/>
     <m/>
@@ -2545,6 +2630,7 @@
     <s v="Undesignated"/>
     <s v="9123 Retirement Communication Speicalist"/>
     <m/>
+    <n v="-1664"/>
     <n v="-1664"/>
     <n v="-1664"/>
     <n v="-1664"/>
@@ -2565,6 +2651,7 @@
     <n v="-1000"/>
     <n v="-1000"/>
     <n v="-1000"/>
+    <n v="-1000"/>
     <m/>
     <s v="Communication Specialist"/>
     <m/>
@@ -2582,6 +2669,7 @@
     <n v="-42120"/>
     <n v="-42120"/>
     <n v="-42120"/>
+    <n v="-42120"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -2599,6 +2687,7 @@
     <n v="-200"/>
     <n v="-200"/>
     <n v="-200"/>
+    <n v="-200"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -2616,6 +2705,7 @@
     <n v="-1500"/>
     <n v="-1500"/>
     <n v="-1500"/>
+    <n v="-1500"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -2633,6 +2723,7 @@
     <n v="-500"/>
     <n v="-500"/>
     <n v="-500"/>
+    <n v="-500"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -2650,6 +2741,7 @@
     <n v="-500"/>
     <n v="-500"/>
     <n v="-500"/>
+    <n v="-500"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -2667,6 +2759,7 @@
     <n v="-700"/>
     <n v="-700"/>
     <n v="-700"/>
+    <n v="-700"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -2684,6 +2777,7 @@
     <n v="-9000"/>
     <n v="-9000"/>
     <n v="-9000"/>
+    <n v="-9000"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -2701,6 +2795,7 @@
     <n v="-37000"/>
     <n v="-37000"/>
     <n v="-37000"/>
+    <n v="-37000"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -2718,6 +2813,7 @@
     <n v="-33000"/>
     <n v="-33000"/>
     <n v="-33000"/>
+    <n v="-33000"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -2735,6 +2831,7 @@
     <n v="-1500"/>
     <n v="-1500"/>
     <n v="-1500"/>
+    <n v="-1500"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -2752,6 +2849,7 @@
     <n v="-1000"/>
     <n v="-1000"/>
     <n v="-1000"/>
+    <n v="-1000"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -2769,6 +2867,7 @@
     <n v="-2500"/>
     <n v="-2500"/>
     <n v="-4405"/>
+    <n v="-4405"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -2786,6 +2885,7 @@
     <n v="-250"/>
     <n v="-250"/>
     <n v="-250"/>
+    <n v="-250"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -2803,6 +2903,7 @@
     <n v="-5000"/>
     <n v="-5000"/>
     <n v="-5000"/>
+    <n v="-5000"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -2820,6 +2921,7 @@
     <n v="-200"/>
     <n v="-200"/>
     <n v="-200"/>
+    <n v="-200"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -2837,6 +2939,7 @@
     <n v="-1000"/>
     <n v="-1000"/>
     <n v="-1000"/>
+    <n v="-1000"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -2854,6 +2957,7 @@
     <n v="-450"/>
     <n v="-450"/>
     <n v="-450"/>
+    <n v="-450"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -2871,6 +2975,7 @@
     <n v="-180"/>
     <n v="-180"/>
     <n v="-180"/>
+    <n v="-180"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -2885,6 +2990,7 @@
     <s v="Undesignated"/>
     <s v="6460 Library Supplies &amp; Equipment"/>
     <m/>
+    <n v="-180"/>
     <n v="-180"/>
     <n v="-180"/>
     <n v="-180"/>
@@ -2905,6 +3011,7 @@
     <n v="-10000"/>
     <n v="-10000"/>
     <n v="-10000"/>
+    <n v="-10000"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -2922,6 +3029,7 @@
     <n v="-14400"/>
     <n v="-14400"/>
     <n v="-14400"/>
+    <n v="-14400"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -2939,6 +3047,7 @@
     <n v="-44800"/>
     <n v="-44800"/>
     <n v="-44800"/>
+    <n v="-44800"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -2956,6 +3065,7 @@
     <n v="-20000"/>
     <n v="-20000"/>
     <n v="-20000"/>
+    <n v="-20000"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -2973,6 +3083,7 @@
     <n v="-1600"/>
     <n v="-1600"/>
     <n v="-1600"/>
+    <n v="-1600"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -2990,6 +3101,7 @@
     <n v="-1600"/>
     <n v="-1600"/>
     <n v="-1600"/>
+    <n v="-1600"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -3007,6 +3119,7 @@
     <n v="-7200"/>
     <n v="-7200"/>
     <n v="-7200"/>
+    <n v="-7200"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -3024,6 +3137,7 @@
     <n v="-7200"/>
     <n v="-7200"/>
     <n v="-7200"/>
+    <n v="-7200"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -3041,6 +3155,7 @@
     <n v="-10000"/>
     <n v="-10000"/>
     <n v="-10000"/>
+    <n v="-10000"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -3058,6 +3173,7 @@
     <n v="-34600"/>
     <n v="-34600"/>
     <n v="-34600"/>
+    <n v="-34600"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -3075,6 +3191,7 @@
     <n v="-1300"/>
     <n v="-1300"/>
     <n v="-1300"/>
+    <n v="-1300"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -3092,6 +3209,7 @@
     <n v="-300"/>
     <n v="-300"/>
     <n v="-300"/>
+    <n v="-300"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -3109,6 +3227,7 @@
     <n v="-300"/>
     <n v="-150"/>
     <n v="-150"/>
+    <n v="-150"/>
     <s v="3/2023 Oksana: Changes from Membership"/>
     <s v="Not a position"/>
     <m/>
@@ -3124,6 +3243,7 @@
     <s v="6705 Membership Committee"/>
     <m/>
     <n v="-300"/>
+    <n v="-150"/>
     <n v="-150"/>
     <n v="-150"/>
     <s v="3/2023 Oksana: Changes from Membership"/>
@@ -3143,6 +3263,7 @@
     <n v="-8000"/>
     <n v="-8000"/>
     <n v="-8000"/>
+    <n v="-8000"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -3160,6 +3281,7 @@
     <n v="-200"/>
     <n v="-200"/>
     <n v="-200"/>
+    <n v="-200"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -3177,6 +3299,7 @@
     <n v="-1000"/>
     <n v="-1000"/>
     <n v="-1000"/>
+    <n v="-1000"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -3194,6 +3317,7 @@
     <n v="-500"/>
     <n v="-500"/>
     <n v="-500"/>
+    <n v="-500"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -3211,6 +3335,7 @@
     <n v="-11600"/>
     <n v="-11600"/>
     <n v="-11600"/>
+    <n v="-11600"/>
     <m/>
     <s v="Wednesday lunch coordinator"/>
     <s v="Base Salary"/>
@@ -3228,6 +3353,7 @@
     <n v="-100"/>
     <n v="-100"/>
     <n v="-100"/>
+    <n v="-100"/>
     <m/>
     <s v="Wednesday lunch coordinator"/>
     <m/>
@@ -3245,6 +3371,7 @@
     <n v="-2000"/>
     <n v="-2000"/>
     <n v="-2000"/>
+    <n v="-2000"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -3262,6 +3389,7 @@
     <n v="-122"/>
     <n v="-122"/>
     <n v="-122"/>
+    <n v="-122"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -3279,6 +3407,7 @@
     <n v="-3660"/>
     <n v="-3660"/>
     <n v="-3660"/>
+    <n v="-3660"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -3296,6 +3425,7 @@
     <n v="-122"/>
     <n v="-122"/>
     <n v="-122"/>
+    <n v="-122"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -3313,6 +3443,7 @@
     <n v="-610"/>
     <n v="-610"/>
     <n v="-610"/>
+    <n v="-610"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -3330,6 +3461,7 @@
     <n v="-500"/>
     <n v="-500"/>
     <n v="-500"/>
+    <n v="-500"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -3347,6 +3479,7 @@
     <n v="-1000"/>
     <n v="-1000"/>
     <n v="-1000"/>
+    <n v="-1000"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -3364,6 +3497,7 @@
     <n v="-4545.2999999999993"/>
     <n v="-4545.2999999999993"/>
     <n v="-4545.2999999999993"/>
+    <n v="-4545.2999999999993"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -3381,6 +3515,7 @@
     <n v="-12996.499999999998"/>
     <n v="-12996.499999999998"/>
     <n v="-12996.499999999998"/>
+    <n v="-12996.499999999998"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -3398,6 +3533,7 @@
     <n v="-16819"/>
     <n v="-16819"/>
     <n v="-16819"/>
+    <n v="-16819"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -3415,6 +3551,7 @@
     <n v="-671"/>
     <n v="-671"/>
     <n v="-671"/>
+    <n v="-671"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -3432,6 +3569,7 @@
     <n v="-7320"/>
     <n v="-7320"/>
     <n v="-7320"/>
+    <n v="-7320"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -3449,6 +3587,7 @@
     <n v="-11346"/>
     <n v="-11346"/>
     <n v="-11346"/>
+    <n v="-11346"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -3466,6 +3605,7 @@
     <n v="-610"/>
     <n v="-610"/>
     <n v="-610"/>
+    <n v="-610"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -3483,6 +3623,7 @@
     <n v="-1400"/>
     <n v="-1400"/>
     <n v="-1400"/>
+    <n v="-1400"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -3500,6 +3641,7 @@
     <n v="-1000"/>
     <n v="-1000"/>
     <n v="-1000"/>
+    <n v="-1000"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -3517,6 +3659,7 @@
     <n v="-12000"/>
     <n v="-12000"/>
     <n v="-12000"/>
+    <n v="-12000"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -3534,6 +3677,7 @@
     <n v="-26300"/>
     <n v="-26300"/>
     <n v="-26300"/>
+    <n v="-26300"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -3551,6 +3695,7 @@
     <n v="-8000"/>
     <n v="-8000"/>
     <n v="-8000"/>
+    <n v="-8000"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -3568,6 +3713,7 @@
     <n v="-30900"/>
     <n v="-30900"/>
     <n v="-30900"/>
+    <n v="-30900"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -3585,6 +3731,7 @@
     <n v="-2200"/>
     <n v="-2200"/>
     <n v="-2200"/>
+    <n v="-2200"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -3602,6 +3749,7 @@
     <n v="-3500"/>
     <n v="-3500"/>
     <n v="-3500"/>
+    <n v="-3500"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -3619,6 +3767,7 @@
     <n v="-2500"/>
     <n v="-2500"/>
     <n v="-2500"/>
+    <n v="-2500"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -3636,6 +3785,7 @@
     <n v="-2500"/>
     <n v="-2500"/>
     <n v="-2500"/>
+    <n v="-2500"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -3653,6 +3803,7 @@
     <n v="-3800"/>
     <n v="-3800"/>
     <n v="-3800"/>
+    <n v="-3800"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -3670,6 +3821,7 @@
     <n v="-1000"/>
     <n v="-1000"/>
     <n v="-1000"/>
+    <n v="-1000"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -3687,6 +3839,7 @@
     <n v="-20000"/>
     <n v="-20000"/>
     <n v="-20000"/>
+    <n v="-20000"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -3704,6 +3857,7 @@
     <n v="-500"/>
     <n v="-500"/>
     <n v="-500"/>
+    <n v="-500"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -3721,6 +3875,7 @@
     <n v="-7449.39"/>
     <n v="-7449.39"/>
     <n v="-7449.39"/>
+    <n v="-7449.39"/>
     <m/>
     <s v="Maintenance"/>
     <m/>
@@ -3738,6 +3893,7 @@
     <n v="-93167.21"/>
     <n v="-93167.21"/>
     <n v="-93167.21"/>
+    <n v="-93167.21"/>
     <m/>
     <s v="Maintenance"/>
     <s v="Base Salary"/>
@@ -3755,6 +3911,7 @@
     <n v="-11000"/>
     <n v="-11000"/>
     <n v="-11000"/>
+    <n v="-11000"/>
     <m/>
     <s v="Maintenance"/>
     <m/>
@@ -3769,6 +3926,7 @@
     <s v="Undesignated"/>
     <s v="5035 Retirement Maintenance"/>
     <m/>
+    <n v="-3895.1"/>
     <n v="-3895.1"/>
     <n v="-3895.1"/>
     <n v="-3895.1"/>
@@ -3789,6 +3947,7 @@
     <n v="-500"/>
     <n v="-500"/>
     <n v="-500"/>
+    <n v="-500"/>
     <m/>
     <s v="Maintenance"/>
     <m/>
@@ -3806,6 +3965,7 @@
     <n v="-200"/>
     <n v="-200"/>
     <n v="-200"/>
+    <n v="-200"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -3823,6 +3983,7 @@
     <n v="-700"/>
     <n v="-700"/>
     <n v="-700"/>
+    <n v="-700"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -3840,6 +4001,7 @@
     <n v="-5000"/>
     <n v="-5000"/>
     <n v="-5000"/>
+    <n v="-5000"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -3857,6 +4019,7 @@
     <n v="-3600"/>
     <n v="-3600"/>
     <n v="-3600"/>
+    <n v="-3600"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -3874,6 +4037,7 @@
     <n v="-200"/>
     <n v="-200"/>
     <n v="-200"/>
+    <n v="-200"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -3891,6 +4055,7 @@
     <n v="-200"/>
     <n v="-200"/>
     <n v="-200"/>
+    <n v="-200"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -3908,6 +4073,7 @@
     <n v="-1000"/>
     <n v="-1000"/>
     <n v="-1000"/>
+    <n v="-1000"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -3925,6 +4091,7 @@
     <n v="-200"/>
     <n v="-200"/>
     <n v="-200"/>
+    <n v="-200"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -3942,6 +4109,7 @@
     <n v="-200"/>
     <n v="-200"/>
     <n v="-200"/>
+    <n v="-200"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -3959,6 +4127,7 @@
     <n v="-200"/>
     <n v="-200"/>
     <n v="-200"/>
+    <n v="-200"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -3976,6 +4145,7 @@
     <n v="-2400"/>
     <n v="-2400"/>
     <n v="-2400"/>
+    <n v="-2400"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -3993,6 +4163,7 @@
     <n v="-300"/>
     <n v="-300"/>
     <n v="-300"/>
+    <n v="-300"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -4010,6 +4181,7 @@
     <n v="-200"/>
     <n v="-200"/>
     <n v="-200"/>
+    <n v="-200"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -4027,6 +4199,7 @@
     <n v="-100"/>
     <n v="-100"/>
     <n v="-100"/>
+    <n v="-100"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -4041,6 +4214,7 @@
     <s v="Undesignated"/>
     <s v="6075 Vespers"/>
     <m/>
+    <n v="-9000"/>
     <n v="-9000"/>
     <n v="-9000"/>
     <n v="-9000"/>
@@ -4061,6 +4235,7 @@
     <n v="-1100"/>
     <m/>
     <m/>
+    <n v="0"/>
     <s v="3/2023 Oksana: same as Cook Trust note above"/>
     <s v="Not a position"/>
     <m/>
@@ -4076,6 +4251,7 @@
     <s v="6076 Flowers expenses"/>
     <m/>
     <m/>
+    <n v="-1100"/>
     <n v="-1100"/>
     <n v="-1100"/>
     <s v="3/2023 Oksana: same as Cook Trust note above"/>
@@ -4095,6 +4271,7 @@
     <n v="-5000"/>
     <m/>
     <m/>
+    <n v="0"/>
     <s v="3/2/23 Dave: Per Consistory, moved to Tercentenary"/>
     <s v="Not a position"/>
     <m/>
@@ -4112,6 +4289,7 @@
     <m/>
     <n v="-5000"/>
     <n v="-5000"/>
+    <n v="-5000"/>
     <s v="3/2/23 Dave: Per Consistory, moved to Tercentenary"/>
     <s v="Not a position"/>
     <m/>
@@ -4126,6 +4304,7 @@
     <s v="Undesignated"/>
     <s v="6078 Audio Sound /Video Streeming expenses"/>
     <m/>
+    <n v="-13000"/>
     <n v="-13000"/>
     <n v="-13000"/>
     <n v="-13000"/>
@@ -4146,6 +4325,7 @@
     <n v="-3000"/>
     <n v="-3000"/>
     <n v="-3000"/>
+    <n v="-3000"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -4163,6 +4343,7 @@
     <n v="-1500"/>
     <n v="-1500"/>
     <n v="-1500"/>
+    <n v="-1500"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -4180,6 +4361,7 @@
     <n v="-200"/>
     <n v="-200"/>
     <n v="-200"/>
+    <n v="-200"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -4197,6 +4379,7 @@
     <n v="-1300"/>
     <n v="-1300"/>
     <n v="-1300"/>
+    <n v="-1300"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -4211,6 +4394,7 @@
     <s v="Undesignated"/>
     <s v="6083 Vesting for Sanctuary(new)"/>
     <m/>
+    <n v="-2000"/>
     <n v="-2000"/>
     <n v="-2000"/>
     <n v="-2000"/>
@@ -4231,6 +4415,7 @@
     <n v="0"/>
     <n v="-910"/>
     <n v="-910"/>
+    <n v="-910"/>
     <s v="3/2023 Oksana: same as Cook Trust note above"/>
     <s v="Not a position"/>
     <m/>
@@ -4248,6 +4433,7 @@
     <n v="-3786"/>
     <n v="-3786"/>
     <n v="-3786"/>
+    <n v="-3786"/>
     <m/>
     <s v="Music"/>
     <m/>
@@ -4262,6 +4448,7 @@
     <s v="Undesignated"/>
     <s v="5043 Wages Music"/>
     <m/>
+    <n v="-49502"/>
     <n v="-49502"/>
     <n v="-49502"/>
     <n v="-49502"/>
@@ -4282,6 +4469,7 @@
     <n v="-1000"/>
     <n v="-1000"/>
     <n v="-1000"/>
+    <n v="-1000"/>
     <m/>
     <s v="Music"/>
     <m/>
@@ -4299,6 +4487,7 @@
     <n v="-2200"/>
     <n v="-2200"/>
     <n v="-2200"/>
+    <n v="-2200"/>
     <m/>
     <s v="Sr. Pastor"/>
     <m/>
@@ -4316,6 +4505,7 @@
     <n v="-57500"/>
     <n v="-57500"/>
     <n v="-57500"/>
+    <n v="-57500"/>
     <m/>
     <s v="Sr. Pastor"/>
     <s v="Base Salary"/>
@@ -4333,6 +4523,7 @@
     <n v="-10000"/>
     <n v="-10000"/>
     <n v="-10000"/>
+    <n v="-10000"/>
     <m/>
     <s v="Sr. Pastor"/>
     <m/>
@@ -4350,6 +4541,7 @@
     <n v="-13300.000000000002"/>
     <n v="-13300.000000000002"/>
     <n v="-13300.000000000002"/>
+    <n v="-13300.000000000002"/>
     <m/>
     <s v="Sr. Pastor"/>
     <m/>
@@ -4367,6 +4559,7 @@
     <n v="-7267.5"/>
     <n v="-7267.5"/>
     <n v="-7267.5"/>
+    <n v="-7267.5"/>
     <m/>
     <s v="Sr. Pastor"/>
     <m/>
@@ -4384,6 +4577,7 @@
     <n v="-5000"/>
     <n v="-5000"/>
     <n v="-5000"/>
+    <n v="-5000"/>
     <m/>
     <s v="Sr. Pastor"/>
     <m/>
@@ -4401,6 +4595,7 @@
     <n v="-37500"/>
     <n v="-37500"/>
     <n v="-37500"/>
+    <n v="-37500"/>
     <m/>
     <s v="Sr. Pastor"/>
     <s v="Base Salary"/>
@@ -4418,6 +4613,7 @@
     <n v="-1425"/>
     <n v="-1425"/>
     <n v="-1425"/>
+    <n v="-1425"/>
     <m/>
     <s v="Sr. Pastor"/>
     <m/>
@@ -4435,6 +4631,7 @@
     <n v="-200"/>
     <m/>
     <m/>
+    <n v="0"/>
     <s v="3/2023: Oksana: Changes from Youth Ed for 10% reduction"/>
     <s v="Not a position"/>
     <m/>
@@ -4452,6 +4649,7 @@
     <n v="-200"/>
     <n v="-200"/>
     <n v="-200"/>
+    <n v="-200"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -4469,6 +4667,7 @@
     <n v="-400"/>
     <n v="-250"/>
     <n v="-250"/>
+    <n v="-250"/>
     <s v="3/2023: Oksana: Changes from Youth Ed for 10% reduction"/>
     <s v="Not a position"/>
     <m/>
@@ -4486,6 +4685,7 @@
     <n v="-150"/>
     <m/>
     <m/>
+    <n v="0"/>
     <s v="3/2023: Oksana: Changes from Youth Ed for 10% reduction"/>
     <s v="Not a position"/>
     <m/>
@@ -4501,6 +4701,7 @@
     <s v="6120 Family Programming"/>
     <m/>
     <n v="-1500"/>
+    <n v="-1300"/>
     <n v="-1300"/>
     <n v="-1300"/>
     <s v="3/2023: Oksana: Changes from Youth Ed for 10% reduction"/>
@@ -4520,6 +4721,7 @@
     <n v="-3000"/>
     <n v="-3000"/>
     <n v="-3000"/>
+    <n v="-3000"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -4537,6 +4739,7 @@
     <n v="-1500"/>
     <n v="-1400"/>
     <n v="-1400"/>
+    <n v="-1400"/>
     <s v="3/2023: Oksana: Changes from Youth Ed for 10% reduction"/>
     <s v="Not a position"/>
     <m/>
@@ -4554,6 +4757,7 @@
     <n v="-200"/>
     <n v="-200"/>
     <n v="-200"/>
+    <n v="-200"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -4571,6 +4775,7 @@
     <n v="-300"/>
     <n v="-300"/>
     <n v="-300"/>
+    <n v="-300"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -4588,6 +4793,7 @@
     <n v="-3500"/>
     <n v="-3500"/>
     <n v="-3500"/>
+    <n v="-3500"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -4605,6 +4811,7 @@
     <n v="-150"/>
     <n v="-150"/>
     <n v="-150"/>
+    <n v="-150"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -4622,6 +4829,7 @@
     <n v="-200"/>
     <n v="-200"/>
     <n v="-200"/>
+    <n v="-200"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -4639,6 +4847,7 @@
     <n v="-300"/>
     <n v="-300"/>
     <n v="-300"/>
+    <n v="-300"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -4656,6 +4865,7 @@
     <n v="-200"/>
     <n v="-200"/>
     <n v="-200"/>
+    <n v="-200"/>
     <m/>
     <s v="Not a position"/>
     <m/>
@@ -4673,6 +4883,7 @@
     <n v="-1000"/>
     <n v="-800"/>
     <n v="-800"/>
+    <n v="-800"/>
     <s v="3/2023: Oksana: Changes from Youth Ed for 10% reduction"/>
     <s v="Not a position"/>
     <m/>
@@ -4690,6 +4901,7 @@
     <n v="-3596"/>
     <n v="-3596"/>
     <n v="-3596"/>
+    <n v="-3596"/>
     <m/>
     <s v="Youth Ed"/>
     <m/>
@@ -4707,6 +4919,7 @@
     <n v="-47000"/>
     <n v="-47000"/>
     <n v="-47000"/>
+    <n v="-47000"/>
     <m/>
     <s v="Youth Ed"/>
     <s v="Base Salary"/>
@@ -4721,6 +4934,7 @@
     <s v="Undesignated"/>
     <s v="5075 Retirement Youth(new)"/>
     <m/>
+    <n v="-1880"/>
     <n v="-1880"/>
     <n v="-1880"/>
     <n v="-1880"/>
@@ -4741,6 +4955,7 @@
     <n v="-1000"/>
     <n v="-1000"/>
     <n v="-1000"/>
+    <n v="-1000"/>
     <m/>
     <s v="Youth Ed"/>
     <m/>
@@ -4752,13 +4967,13 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0A4E7FDD-FE94-45A4-A7AC-6A49F24B5877}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0A4E7FDD-FE94-45A4-A7AC-6A49F24B5877}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:C32" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="15">
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
+  <pivotFields count="16">
+    <pivotField axis="axisRow" showAll="0">
       <items count="3">
+        <item x="1"/>
         <item x="0"/>
-        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4802,6 +5017,7 @@
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -4816,21 +5032,6 @@
   <rowItems count="31">
     <i>
       <x/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="14"/>
-    </i>
-    <i r="1">
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="1"/>
     </i>
     <i r="1">
       <x/>
@@ -4903,6 +5104,21 @@
     </i>
     <i r="1">
       <x v="27"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="20"/>
     </i>
     <i t="grand">
       <x/>
@@ -5143,7 +5359,7 @@
   </sheetPr>
   <dimension ref="A1:Q204"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L17" sqref="L17"/>
       <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
@@ -13989,15 +14205,15 @@
   </sheetData>
   <autoFilter ref="A1:S204" xr:uid="{9210D030-08A6-47C5-BE1B-A368CD904E6C}"/>
   <conditionalFormatting sqref="A2:P204">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>MOD($P2,2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:J204">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
       <formula>G2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
       <formula>G2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14015,15 +14231,15 @@
   </sheetPr>
   <dimension ref="A1:C247"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14040,332 +14256,332 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="B2" s="13">
-        <v>1252802</v>
+        <v>-1252804.7</v>
       </c>
       <c r="C2" s="13">
-        <v>1252802</v>
+        <v>-1251277.8600000001</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
       <c r="B3" s="13">
-        <v>409400</v>
+        <v>-61600</v>
       </c>
       <c r="C3" s="13">
-        <v>409400</v>
+        <v>-61600</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>28</v>
+        <v>193</v>
       </c>
       <c r="B4" s="13">
-        <v>236520</v>
+        <v>-84700</v>
       </c>
       <c r="C4" s="13">
-        <v>236520</v>
+        <v>-84700</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>282</v>
+        <v>102</v>
       </c>
       <c r="B5" s="13">
-        <v>578072</v>
+        <v>-2115</v>
       </c>
       <c r="C5" s="13">
-        <v>578072</v>
+        <v>-2115</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>31</v>
+        <v>179</v>
       </c>
       <c r="B6" s="13">
-        <v>28810</v>
+        <v>-3750</v>
       </c>
       <c r="C6" s="13">
-        <v>28810</v>
+        <v>-3750</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>38</v>
+      <c r="A7" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="B7" s="13">
-        <v>-1252804.7</v>
+        <v>-1500</v>
       </c>
       <c r="C7" s="13">
-        <v>-1251277.8600000001</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="B8" s="13">
-        <v>-61600</v>
+        <v>-135513.29999999999</v>
       </c>
       <c r="C8" s="13">
-        <v>-61600</v>
+        <v>-132081.46000000002</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B9" s="13">
-        <v>-84700</v>
+        <v>-5500</v>
       </c>
       <c r="C9" s="13">
-        <v>-84700</v>
+        <v>-5500</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>102</v>
+        <v>205</v>
       </c>
       <c r="B10" s="13">
-        <v>-2115</v>
+        <v>-47446.400000000001</v>
       </c>
       <c r="C10" s="13">
-        <v>-2115</v>
+        <v>-47446.400000000001</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>179</v>
+        <v>15</v>
       </c>
       <c r="B11" s="13">
-        <v>-3750</v>
+        <v>-42120</v>
       </c>
       <c r="C11" s="13">
-        <v>-3750</v>
+        <v>-42120</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="B12" s="13">
-        <v>-1500</v>
+        <v>-200</v>
       </c>
       <c r="C12" s="13">
-        <v>-1500</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="B13" s="13">
-        <v>-135513.29999999999</v>
+        <v>-3200</v>
       </c>
       <c r="C13" s="13">
-        <v>-132081.46000000002</v>
+        <v>-3200</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>199</v>
+        <v>4</v>
       </c>
       <c r="B14" s="13">
-        <v>-5500</v>
+        <v>-89450</v>
       </c>
       <c r="C14" s="13">
-        <v>-5500</v>
+        <v>-91355</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="B15" s="13">
-        <v>-47446.400000000001</v>
+        <v>-1810</v>
       </c>
       <c r="C15" s="13">
-        <v>-47446.400000000001</v>
+        <v>-1810</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="13">
-        <v>-42120</v>
+        <v>-151400</v>
       </c>
       <c r="C16" s="13">
-        <v>-42120</v>
+        <v>-151400</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="B17" s="13">
-        <v>-200</v>
+        <v>-1900</v>
       </c>
       <c r="C17" s="13">
-        <v>-200</v>
+        <v>-1900</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="B18" s="13">
-        <v>-3200</v>
+        <v>-9700</v>
       </c>
       <c r="C18" s="13">
-        <v>-3200</v>
+        <v>-9700</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="B19" s="13">
-        <v>-89450</v>
+        <v>-11700</v>
       </c>
       <c r="C19" s="13">
-        <v>-91355</v>
+        <v>-11700</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="B20" s="13">
-        <v>-1810</v>
+        <v>-177921.8</v>
       </c>
       <c r="C20" s="13">
-        <v>-1810</v>
+        <v>-177921.8</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="B21" s="13">
-        <v>-151400</v>
+        <v>-116011.70000000001</v>
       </c>
       <c r="C21" s="13">
-        <v>-151400</v>
+        <v>-116011.70000000001</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="B22" s="13">
-        <v>-1900</v>
+        <v>-51510</v>
       </c>
       <c r="C22" s="13">
-        <v>-1900</v>
+        <v>-51510</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="B23" s="13">
-        <v>-9700</v>
+        <v>-54288</v>
       </c>
       <c r="C23" s="13">
-        <v>-9700</v>
+        <v>-54288</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="B24" s="13">
-        <v>-11700</v>
+        <v>-134192.5</v>
       </c>
       <c r="C24" s="13">
-        <v>-11700</v>
+        <v>-134192.5</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>136</v>
+        <v>67</v>
       </c>
       <c r="B25" s="13">
-        <v>-177921.8</v>
+        <v>-11800</v>
       </c>
       <c r="C25" s="13">
-        <v>-177921.8</v>
+        <v>-11800</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="B26" s="13">
-        <v>-116011.70000000001</v>
+        <v>-53476</v>
       </c>
       <c r="C26" s="13">
-        <v>-116011.70000000001</v>
+        <v>-53476</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>39</v>
+      <c r="A27" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="B27" s="13">
-        <v>-51510</v>
+        <v>1252802</v>
       </c>
       <c r="C27" s="13">
-        <v>-51510</v>
+        <v>1252802</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="B28" s="13">
-        <v>-54288</v>
+        <v>409400</v>
       </c>
       <c r="C28" s="13">
-        <v>-54288</v>
+        <v>409400</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="B29" s="13">
-        <v>-134192.5</v>
+        <v>236520</v>
       </c>
       <c r="C29" s="13">
-        <v>-134192.5</v>
+        <v>236520</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>67</v>
+        <v>282</v>
       </c>
       <c r="B30" s="13">
-        <v>-11800</v>
+        <v>578072</v>
       </c>
       <c r="C30" s="13">
-        <v>-11800</v>
+        <v>578072</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="B31" s="13">
-        <v>-53476</v>
+        <v>28810</v>
       </c>
       <c r="C31" s="13">
-        <v>-53476</v>
+        <v>28810</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -14373,10 +14589,10 @@
         <v>212</v>
       </c>
       <c r="B32" s="13">
-        <v>-2.7000000000698492</v>
+        <v>-2.6999999999534339</v>
       </c>
       <c r="C32" s="13">
-        <v>1524.140000000014</v>
+        <v>1524.1399999998976</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.2">

--- a/budget_2023.xlsx
+++ b/budget_2023.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr hidePivotFieldList="1"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\01_Dave\Programs\GitHub_home\budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D230763-F200-465A-A413-6E44E1C6B58E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F74E2D-D102-400C-B306-B90717F7491F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17925" yWindow="0" windowWidth="10980" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2003 budget" sheetId="7" r:id="rId1"/>
@@ -21,13 +21,13 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2003 budget'!$A$1:$S$204</definedName>
-    <definedName name="_xlcn.WorksheetConnection_budget_2024.xlsxTable2" hidden="1">'[1]budget 11-01-23'!$A$1:$M$198</definedName>
-    <definedName name="_xlcn.WorksheetConnection_budget_2024.xlsxTable3" hidden="1">Table1</definedName>
+    <definedName name="_xlcn.WorksheetConnection_budget_2024.xlsxTable21" hidden="1">'[1]budget 11-01-23'!$A$1:$M$198</definedName>
+    <definedName name="_xlcn.WorksheetConnection_budget_2024.xlsxTable31" hidden="1">Table1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2003 budget'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FCE2AD5D-F65C-4FA6-A056-5C36A1767C68}">
@@ -100,7 +100,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Table2" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_budget_2024.xlsxTable2"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_budget_2024.xlsxTable21"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -109,7 +109,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Table3">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_budget_2024.xlsxTable3"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_budget_2024.xlsxTable31"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="294">
   <si>
     <t>Recurring or 1-time Expense</t>
   </si>
@@ -994,6 +994,12 @@
   </si>
   <si>
     <t>Budget</t>
+  </si>
+  <si>
+    <t>In</t>
+  </si>
+  <si>
+    <t>Out</t>
   </si>
 </sst>
 </file>
@@ -1146,16 +1152,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{6F80153F-CDA1-4E91-9FDD-43E3E0555995}"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     </dxf>
@@ -4967,7 +4964,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0A4E7FDD-FE94-45A4-A7AC-6A49F24B5877}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0A4E7FDD-FE94-45A4-A7AC-6A49F24B5877}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:C32" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" showAll="0">
@@ -5140,7 +5137,7 @@
     <dataField name="Sum of 2023 Budget 4/4/23" fld="8" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="3">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -5359,10 +5356,10 @@
   </sheetPr>
   <dimension ref="A1:Q204"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L17" sqref="L17"/>
-      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27:A204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5436,7 +5433,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>292</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -5479,7 +5476,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>292</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -5522,7 +5519,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>292</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
@@ -5565,7 +5562,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>292</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
@@ -5608,7 +5605,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>292</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
@@ -5651,7 +5648,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>292</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
@@ -5694,7 +5691,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>292</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
@@ -5737,7 +5734,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>292</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
@@ -5780,7 +5777,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>292</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>28</v>
@@ -5823,7 +5820,7 @@
     </row>
     <row r="11" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>292</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>28</v>
@@ -5857,7 +5854,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>292</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>28</v>
@@ -5900,7 +5897,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>292</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>28</v>
@@ -5946,7 +5943,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>3</v>
+        <v>292</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>28</v>
@@ -5989,7 +5986,7 @@
     </row>
     <row r="15" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>3</v>
+        <v>292</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>282</v>
@@ -6035,7 +6032,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>292</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>282</v>
@@ -6081,7 +6078,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>3</v>
+        <v>292</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>282</v>
@@ -6124,7 +6121,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>3</v>
+        <v>292</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>282</v>
@@ -6167,7 +6164,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>3</v>
+        <v>292</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>282</v>
@@ -6210,7 +6207,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>3</v>
+        <v>292</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>282</v>
@@ -6256,7 +6253,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>3</v>
+        <v>292</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>31</v>
@@ -6299,7 +6296,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>292</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>31</v>
@@ -6342,7 +6339,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>3</v>
+        <v>292</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>31</v>
@@ -6385,7 +6382,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>3</v>
+        <v>292</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>31</v>
@@ -6428,7 +6425,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>3</v>
+        <v>292</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>31</v>
@@ -6474,7 +6471,7 @@
     </row>
     <row r="26" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>3</v>
+        <v>292</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>31</v>
@@ -6508,7 +6505,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>181</v>
@@ -6551,7 +6548,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>181</v>
@@ -6597,7 +6594,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>181</v>
@@ -6640,7 +6637,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>181</v>
@@ -6683,7 +6680,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>181</v>
@@ -6726,7 +6723,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>181</v>
@@ -6769,7 +6766,7 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>181</v>
@@ -6812,7 +6809,7 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>181</v>
@@ -6855,7 +6852,7 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>181</v>
@@ -6898,7 +6895,7 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>181</v>
@@ -6941,7 +6938,7 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>181</v>
@@ -6984,7 +6981,7 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>181</v>
@@ -7027,7 +7024,7 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>181</v>
@@ -7070,7 +7067,7 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>193</v>
@@ -7113,7 +7110,7 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>193</v>
@@ -7159,7 +7156,7 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>193</v>
@@ -7202,7 +7199,7 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>193</v>
@@ -7245,7 +7242,7 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>193</v>
@@ -7288,7 +7285,7 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>102</v>
@@ -7331,7 +7328,7 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>102</v>
@@ -7374,7 +7371,7 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>102</v>
@@ -7417,7 +7414,7 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>102</v>
@@ -7460,7 +7457,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>102</v>
@@ -7503,7 +7500,7 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>102</v>
@@ -7546,7 +7543,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>179</v>
@@ -7589,7 +7586,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>179</v>
@@ -7632,7 +7629,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>179</v>
@@ -7675,7 +7672,7 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>112</v>
@@ -7718,7 +7715,7 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>112</v>
@@ -7761,7 +7758,7 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>112</v>
@@ -7804,7 +7801,7 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>112</v>
@@ -7847,7 +7844,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>112</v>
@@ -7890,7 +7887,7 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>117</v>
@@ -7933,7 +7930,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>117</v>
@@ -7979,7 +7976,7 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>117</v>
@@ -8022,7 +8019,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>117</v>
@@ -8065,7 +8062,7 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>117</v>
@@ -8108,7 +8105,7 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>117</v>
@@ -8151,7 +8148,7 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>117</v>
@@ -8197,7 +8194,7 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>117</v>
@@ -8240,7 +8237,7 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>199</v>
@@ -8283,7 +8280,7 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>199</v>
@@ -8326,7 +8323,7 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>199</v>
@@ -8369,7 +8366,7 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>199</v>
@@ -8412,7 +8409,7 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>199</v>
@@ -8455,7 +8452,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>199</v>
@@ -8498,7 +8495,7 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>205</v>
@@ -8544,7 +8541,7 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>205</v>
@@ -8587,7 +8584,7 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>205</v>
@@ -8630,7 +8627,7 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>205</v>
@@ -8673,7 +8670,7 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>15</v>
@@ -8716,7 +8713,7 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>94</v>
@@ -8759,7 +8756,7 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>132</v>
@@ -8802,7 +8799,7 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>132</v>
@@ -8845,7 +8842,7 @@
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>132</v>
@@ -8888,7 +8885,7 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>132</v>
@@ -8931,7 +8928,7 @@
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>4</v>
@@ -8974,7 +8971,7 @@
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>4</v>
@@ -9017,7 +9014,7 @@
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>4</v>
@@ -9060,7 +9057,7 @@
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>4</v>
@@ -9103,7 +9100,7 @@
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>4</v>
@@ -9146,7 +9143,7 @@
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>4</v>
@@ -9189,7 +9186,7 @@
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>4</v>
@@ -9232,7 +9229,7 @@
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>4</v>
@@ -9275,7 +9272,7 @@
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>4</v>
@@ -9318,7 +9315,7 @@
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>108</v>
@@ -9361,7 +9358,7 @@
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>108</v>
@@ -9404,7 +9401,7 @@
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>108</v>
@@ -9447,7 +9444,7 @@
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>108</v>
@@ -9490,7 +9487,7 @@
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>14</v>
@@ -9533,7 +9530,7 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>14</v>
@@ -9576,7 +9573,7 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>14</v>
@@ -9619,7 +9616,7 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>14</v>
@@ -9662,7 +9659,7 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>14</v>
@@ -9705,7 +9702,7 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>14</v>
@@ -9748,7 +9745,7 @@
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>14</v>
@@ -9791,7 +9788,7 @@
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>14</v>
@@ -9834,7 +9831,7 @@
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>14</v>
@@ -9877,7 +9874,7 @@
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>14</v>
@@ -9920,7 +9917,7 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>127</v>
@@ -9963,7 +9960,7 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>127</v>
@@ -10006,7 +10003,7 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>127</v>
@@ -10052,7 +10049,7 @@
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>127</v>
@@ -10098,7 +10095,7 @@
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>97</v>
@@ -10141,7 +10138,7 @@
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>97</v>
@@ -10184,7 +10181,7 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>97</v>
@@ -10227,7 +10224,7 @@
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>97</v>
@@ -10270,7 +10267,7 @@
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>100</v>
@@ -10316,7 +10313,7 @@
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>100</v>
@@ -10359,7 +10356,7 @@
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>136</v>
@@ -10402,7 +10399,7 @@
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>136</v>
@@ -10445,7 +10442,7 @@
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>136</v>
@@ -10488,7 +10485,7 @@
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>136</v>
@@ -10531,7 +10528,7 @@
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>136</v>
@@ -10574,7 +10571,7 @@
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>136</v>
@@ -10617,7 +10614,7 @@
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>136</v>
@@ -10660,7 +10657,7 @@
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>136</v>
@@ -10703,7 +10700,7 @@
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>136</v>
@@ -10746,7 +10743,7 @@
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>136</v>
@@ -10789,7 +10786,7 @@
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>136</v>
@@ -10832,7 +10829,7 @@
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>136</v>
@@ -10875,7 +10872,7 @@
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>136</v>
@@ -10918,7 +10915,7 @@
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>136</v>
@@ -10961,7 +10958,7 @@
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>136</v>
@@ -11004,7 +11001,7 @@
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>136</v>
@@ -11047,7 +11044,7 @@
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>136</v>
@@ -11090,7 +11087,7 @@
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>136</v>
@@ -11133,7 +11130,7 @@
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>136</v>
@@ -11176,7 +11173,7 @@
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>136</v>
@@ -11219,7 +11216,7 @@
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>136</v>
@@ -11262,7 +11259,7 @@
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>136</v>
@@ -11305,7 +11302,7 @@
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>136</v>
@@ -11348,7 +11345,7 @@
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>136</v>
@@ -11391,7 +11388,7 @@
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>136</v>
@@ -11434,7 +11431,7 @@
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>136</v>
@@ -11477,7 +11474,7 @@
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>136</v>
@@ -11520,7 +11517,7 @@
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>136</v>
@@ -11563,7 +11560,7 @@
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>163</v>
@@ -11606,7 +11603,7 @@
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>163</v>
@@ -11652,7 +11649,7 @@
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>163</v>
@@ -11695,7 +11692,7 @@
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>163</v>
@@ -11738,7 +11735,7 @@
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>163</v>
@@ -11781,7 +11778,7 @@
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>39</v>
@@ -11824,7 +11821,7 @@
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>39</v>
@@ -11867,7 +11864,7 @@
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>39</v>
@@ -11910,7 +11907,7 @@
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>39</v>
@@ -11953,7 +11950,7 @@
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>39</v>
@@ -11996,7 +11993,7 @@
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>39</v>
@@ -12039,7 +12036,7 @@
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>39</v>
@@ -12082,7 +12079,7 @@
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>39</v>
@@ -12125,7 +12122,7 @@
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>39</v>
@@ -12168,7 +12165,7 @@
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>39</v>
@@ -12211,7 +12208,7 @@
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>39</v>
@@ -12254,7 +12251,7 @@
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>39</v>
@@ -12297,7 +12294,7 @@
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>39</v>
@@ -12340,7 +12337,7 @@
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>39</v>
@@ -12383,7 +12380,7 @@
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>39</v>
@@ -12426,7 +12423,7 @@
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>39</v>
@@ -12466,7 +12463,7 @@
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>39</v>
@@ -12509,7 +12506,7 @@
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>39</v>
@@ -12549,7 +12546,7 @@
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>39</v>
@@ -12592,7 +12589,7 @@
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>39</v>
@@ -12635,7 +12632,7 @@
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>39</v>
@@ -12678,7 +12675,7 @@
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>39</v>
@@ -12721,7 +12718,7 @@
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>39</v>
@@ -12764,7 +12761,7 @@
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>39</v>
@@ -12807,7 +12804,7 @@
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>39</v>
@@ -12850,7 +12847,7 @@
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>39</v>
@@ -12896,7 +12893,7 @@
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>53</v>
@@ -12939,7 +12936,7 @@
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>53</v>
@@ -12985,7 +12982,7 @@
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>53</v>
@@ -13028,7 +13025,7 @@
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>58</v>
@@ -13071,7 +13068,7 @@
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>58</v>
@@ -13117,7 +13114,7 @@
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>58</v>
@@ -13160,7 +13157,7 @@
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>58</v>
@@ -13203,7 +13200,7 @@
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>58</v>
@@ -13246,7 +13243,7 @@
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>58</v>
@@ -13289,7 +13286,7 @@
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>58</v>
@@ -13335,7 +13332,7 @@
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>58</v>
@@ -13378,7 +13375,7 @@
     </row>
     <row r="186" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>67</v>
@@ -13418,7 +13415,7 @@
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>67</v>
@@ -13461,7 +13458,7 @@
     </row>
     <row r="188" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>67</v>
@@ -13507,7 +13504,7 @@
     </row>
     <row r="189" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>67</v>
@@ -13547,7 +13544,7 @@
     </row>
     <row r="190" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>67</v>
@@ -13593,7 +13590,7 @@
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>67</v>
@@ -13636,7 +13633,7 @@
     </row>
     <row r="192" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>67</v>
@@ -13682,7 +13679,7 @@
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>67</v>
@@ -13725,7 +13722,7 @@
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>67</v>
@@ -13768,7 +13765,7 @@
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>67</v>
@@ -13811,7 +13808,7 @@
     </row>
     <row r="196" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>67</v>
@@ -13854,7 +13851,7 @@
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>67</v>
@@ -13897,7 +13894,7 @@
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>67</v>
@@ -13940,7 +13937,7 @@
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>67</v>
@@ -13983,7 +13980,7 @@
     </row>
     <row r="200" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>67</v>
@@ -14029,7 +14026,7 @@
     </row>
     <row r="201" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>81</v>
@@ -14072,7 +14069,7 @@
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>81</v>
@@ -14118,7 +14115,7 @@
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>81</v>
@@ -14161,7 +14158,7 @@
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>81</v>
@@ -14205,15 +14202,15 @@
   </sheetData>
   <autoFilter ref="A1:S204" xr:uid="{9210D030-08A6-47C5-BE1B-A368CD904E6C}"/>
   <conditionalFormatting sqref="A2:P204">
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>MOD($P2,2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:J204">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
       <formula>G2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
       <formula>G2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14231,7 +14228,7 @@
   </sheetPr>
   <dimension ref="A1:C247"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
